--- a/MDT/RollenBeheer2.xlsx
+++ b/MDT/RollenBeheer2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="3"/>
+    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="aangemaaktDoor" sheetId="4" r:id="rId4"/>
     <sheet name="geautoriseerd" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -128,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,13 +473,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -530,6 +537,9 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -537,9 +547,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -575,6 +587,9 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -584,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MDT/RollenBeheer2.xlsx
+++ b/MDT/RollenBeheer2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="2"/>
+    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Certificaat</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Pas</t>
   </si>
   <si>
-    <t>ProcID</t>
-  </si>
-  <si>
     <t>[Certificaat]</t>
   </si>
   <si>
@@ -83,16 +80,10 @@
     <t>org1</t>
   </si>
   <si>
-    <t>org1Id1</t>
-  </si>
-  <si>
-    <t>org1Id2</t>
-  </si>
-  <si>
     <t>org2</t>
   </si>
   <si>
-    <t>beheerdDoor</t>
+    <t>beheerderVan</t>
   </si>
 </sst>
 </file>
@@ -440,16 +431,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,16 +480,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -513,28 +504,6 @@
       </c>
       <c r="D2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -557,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +542,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -581,7 +550,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -611,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,24 +603,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/MDT/RollenBeheer2.xlsx
+++ b/MDT/RollenBeheer2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="1"/>
+    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Certificaat</t>
   </si>
@@ -83,7 +83,13 @@
     <t>org2</t>
   </si>
   <si>
-    <t>beheerderVan</t>
+    <t>beheerderVan~</t>
+  </si>
+  <si>
+    <t>Beheerder</t>
+  </si>
+  <si>
+    <t>Rol</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,10 +594,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/MDT/RollenBeheer2.xlsx
+++ b/MDT/RollenBeheer2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="3"/>
+    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Certificaat</t>
   </si>
@@ -83,13 +83,7 @@
     <t>org2</t>
   </si>
   <si>
-    <t>beheerderVan~</t>
-  </si>
-  <si>
-    <t>Beheerder</t>
-  </si>
-  <si>
-    <t>Rol</t>
+    <t>beheerderVan</t>
   </si>
 </sst>
 </file>
@@ -472,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,10 +588,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
